--- a/documents/【PG】課題アプリ仕様_窪田さん.xlsx
+++ b/documents/【PG】課題アプリ仕様_窪田さん.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h-kubota/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h-kubota/cakephp-vagrant/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="777"/>
+    <workbookView xWindow="11600" yWindow="460" windowWidth="24860" windowHeight="14340" tabRatio="777"/>
   </bookViews>
   <sheets>
     <sheet name="課題アプリの仕様" sheetId="2" r:id="rId1"/>
@@ -694,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -736,6 +736,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
@@ -1217,7 +1220,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
@@ -1228,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -1239,7 +1242,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
@@ -1250,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
@@ -1261,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
@@ -1272,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
@@ -1283,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
@@ -1294,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
